--- a/teaching/traditional_assets/database/data/vietnam/vietnam_recreation.xlsx
+++ b/teaching/traditional_assets/database/data/vietnam/vietnam_recreation.xlsx
@@ -591,46 +591,46 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.063</v>
+        <v>-0.113</v>
       </c>
       <c r="E2">
-        <v>0.0858</v>
+        <v>-0.168</v>
       </c>
       <c r="G2">
-        <v>0.4952879581151833</v>
+        <v>1.102439024390244</v>
       </c>
       <c r="H2">
-        <v>0.4952879581151833</v>
+        <v>1.102439024390244</v>
       </c>
       <c r="I2">
-        <v>0.4900523560209423</v>
+        <v>0.1917073170731708</v>
       </c>
       <c r="J2">
-        <v>0.3903961866062358</v>
+        <v>0.1596703224750368</v>
       </c>
       <c r="K2">
-        <v>4.27</v>
+        <v>1.25</v>
       </c>
       <c r="L2">
-        <v>0.4471204188481674</v>
+        <v>0.3048780487804879</v>
       </c>
       <c r="M2">
-        <v>3.29</v>
+        <v>3.12</v>
       </c>
       <c r="N2">
-        <v>0.1071661237785016</v>
+        <v>0.1253012048192771</v>
       </c>
       <c r="O2">
-        <v>0.7704918032786886</v>
+        <v>2.496</v>
       </c>
       <c r="P2">
-        <v>3.29</v>
+        <v>3.12</v>
       </c>
       <c r="Q2">
-        <v>0.1071661237785016</v>
+        <v>0.1253012048192771</v>
       </c>
       <c r="R2">
-        <v>0.7704918032786886</v>
+        <v>2.496</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,70 +639,70 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="V2">
-        <v>0.0504885993485342</v>
+        <v>0.05783132530120482</v>
       </c>
       <c r="W2">
-        <v>0.4186274509803922</v>
+        <v>0.1201923076923077</v>
       </c>
       <c r="X2">
-        <v>0.09254450576983007</v>
+        <v>0.08648830264224244</v>
       </c>
       <c r="Y2">
-        <v>0.3260829452105621</v>
+        <v>0.03370400505006524</v>
       </c>
       <c r="Z2">
-        <v>1.183395291201983</v>
+        <v>0.4632768361581921</v>
       </c>
       <c r="AA2">
-        <v>0.46199300893303</v>
+        <v>0.07397156182459334</v>
       </c>
       <c r="AB2">
-        <v>0.09254450576983007</v>
+        <v>0.08612431860519103</v>
       </c>
       <c r="AC2">
-        <v>0.3694485031631999</v>
+        <v>-0.01215275678059768</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AG2">
-        <v>-1.55</v>
+        <v>-1.24</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>0.007968127490039842</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="AJ2">
-        <v>-0.05317324185248714</v>
+        <v>-0.05240912933220625</v>
       </c>
       <c r="AK2">
-        <v>-0.1751412429378531</v>
+        <v>-0.1794500723589001</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-0.755</v>
+        <v>-0.7</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>0.2336448598130841</v>
       </c>
       <c r="AP2">
-        <v>-0.3215767634854771</v>
+        <v>-1.448598130841122</v>
       </c>
       <c r="AQ2">
-        <v>-6.198675496688741</v>
+        <v>-1.122857142857143</v>
       </c>
     </row>
     <row r="3">
@@ -722,46 +722,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.063</v>
+        <v>-0.113</v>
       </c>
       <c r="E3">
-        <v>0.0858</v>
+        <v>-0.168</v>
       </c>
       <c r="G3">
-        <v>0.4952879581151833</v>
+        <v>1.102439024390244</v>
       </c>
       <c r="H3">
-        <v>0.4952879581151833</v>
+        <v>1.102439024390244</v>
       </c>
       <c r="I3">
-        <v>0.4900523560209423</v>
+        <v>0.1917073170731708</v>
       </c>
       <c r="J3">
-        <v>0.3903961866062358</v>
+        <v>0.1596703224750368</v>
       </c>
       <c r="K3">
-        <v>4.27</v>
+        <v>1.25</v>
       </c>
       <c r="L3">
-        <v>0.4471204188481674</v>
+        <v>0.3048780487804879</v>
       </c>
       <c r="M3">
-        <v>3.29</v>
+        <v>3.12</v>
       </c>
       <c r="N3">
-        <v>0.1071661237785016</v>
+        <v>0.1253012048192771</v>
       </c>
       <c r="O3">
-        <v>0.7704918032786886</v>
+        <v>2.496</v>
       </c>
       <c r="P3">
-        <v>3.29</v>
+        <v>3.12</v>
       </c>
       <c r="Q3">
-        <v>0.1071661237785016</v>
+        <v>0.1253012048192771</v>
       </c>
       <c r="R3">
-        <v>0.7704918032786886</v>
+        <v>2.496</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -770,70 +770,70 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="V3">
-        <v>0.0504885993485342</v>
+        <v>0.05783132530120482</v>
       </c>
       <c r="W3">
-        <v>0.4186274509803922</v>
+        <v>0.1201923076923077</v>
       </c>
       <c r="X3">
-        <v>0.09254450576983007</v>
+        <v>0.08648830264224244</v>
       </c>
       <c r="Y3">
-        <v>0.3260829452105621</v>
+        <v>0.03370400505006524</v>
       </c>
       <c r="Z3">
-        <v>1.183395291201983</v>
+        <v>0.4632768361581921</v>
       </c>
       <c r="AA3">
-        <v>0.46199300893303</v>
+        <v>0.07397156182459334</v>
       </c>
       <c r="AB3">
-        <v>0.09254450576983007</v>
+        <v>0.08612431860519103</v>
       </c>
       <c r="AC3">
-        <v>0.3694485031631999</v>
+        <v>-0.01215275678059768</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AG3">
-        <v>-1.55</v>
+        <v>-1.24</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.007968127490039842</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="AJ3">
-        <v>-0.05317324185248714</v>
+        <v>-0.05240912933220625</v>
       </c>
       <c r="AK3">
-        <v>-0.1751412429378531</v>
+        <v>-0.1794500723589001</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-0.755</v>
+        <v>-0.7</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>0.2336448598130841</v>
       </c>
       <c r="AP3">
-        <v>-0.3215767634854771</v>
+        <v>-1.448598130841122</v>
       </c>
       <c r="AQ3">
-        <v>-6.198675496688741</v>
+        <v>-1.122857142857143</v>
       </c>
     </row>
   </sheetData>
